--- a/www/plys/Tern/PyroxClass.xlsx
+++ b/www/plys/Tern/PyroxClass.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\R\RockR.v2.3\www\plys\Tern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81080D-4E96-4778-BC12-DAF2120E6ACA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
     <sheet name="lbls" sheetId="2" r:id="rId2"/>
     <sheet name="axes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -76,227 +83,24 @@
     <t>Clinoferrosilite</t>
   </si>
   <si>
-    <r>
-      <t>Ca</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Si</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Wo)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mg</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Si</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (En)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Fe</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Si</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Fs)</t>
-    </r>
-  </si>
-  <si>
     <t>Pyroxene Classification Diagram</t>
+  </si>
+  <si>
+    <t>Wollastonite</t>
+  </si>
+  <si>
+    <t>Enstatite</t>
+  </si>
+  <si>
+    <t>Ferrosilite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -644,21 +448,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>50</v>
       </c>
@@ -692,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>50</v>
       </c>
@@ -709,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45</v>
       </c>
@@ -726,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45</v>
       </c>
@@ -743,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>50</v>
       </c>
@@ -760,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>50</v>
       </c>
@@ -777,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45</v>
       </c>
@@ -794,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45</v>
       </c>
@@ -811,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45</v>
       </c>
@@ -828,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45</v>
       </c>
@@ -845,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>20</v>
       </c>
@@ -862,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>20</v>
       </c>
@@ -879,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -896,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -913,7 +717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -930,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -947,7 +751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -964,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -981,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -998,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1015,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1032,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -1049,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1066,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1083,25 +887,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,19 +913,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1176,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1234,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1321,37 +1125,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1359,20 +1163,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,18 +1190,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/www/plys/Tern/PyroxClass.xlsx
+++ b/www/plys/Tern/PyroxClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE81080D-4E96-4778-BC12-DAF2120E6ACA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13080ACB-6982-4D44-B9A7-04552B5A3BC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -86,6 +86,15 @@
     <t>Pyroxene Classification Diagram</t>
   </si>
   <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
+  </si>
+  <si>
     <t>Wollastonite</t>
   </si>
   <si>
@@ -93,6 +102,15 @@
   </si>
   <si>
     <t>Ferrosilite</t>
+  </si>
+  <si>
+    <t>[ Ca(%) ]SiO3</t>
+  </si>
+  <si>
+    <t>[ Mg(%) ]SiO3</t>
+  </si>
+  <si>
+    <t>[ Fe(%) ]SiO3</t>
   </si>
 </sst>
 </file>
@@ -1164,19 +1182,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,20 +1206,38 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
     </row>
